--- a/Support Documents/SJTA/SJTA -Menu.xlsx
+++ b/Support Documents/SJTA/SJTA -Menu.xlsx
@@ -640,7 +640,7 @@
       <pane xSplit="4" ySplit="8" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomRight" activeCell="E22" sqref="D22:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21611,9 +21611,16 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C9" r:id="rId1"/>
+    <hyperlink ref="C11" r:id="rId2"/>
+    <hyperlink ref="C12" r:id="rId3"/>
+    <hyperlink ref="C14" r:id="rId4"/>
+    <hyperlink ref="C15" r:id="rId5"/>
+    <hyperlink ref="C18" r:id="rId6"/>
+    <hyperlink ref="C19" r:id="rId7"/>
+    <hyperlink ref="C20" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
